--- a/management/Diagramme de Gantt des Gantts.xlsx
+++ b/management/Diagramme de Gantt des Gantts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{AEEF2462-DB57-4212-91A6-F2C841233F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7583D3E-1239-415C-B93D-2DC796981D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{568C94E4-E3F7-4EB4-8281-4914A18C47B4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Créez un diagramme de Gantt Suivi de date dans cette feuille de calcul.
 Le titre de cette feuille de calcul figure dans la cellule B1. 
@@ -104,24 +104,6 @@
   </si>
   <si>
     <t>Jalon</t>
-  </si>
-  <si>
-    <t>Jalon 1</t>
-  </si>
-  <si>
-    <t>Jalon 2</t>
-  </si>
-  <si>
-    <t>Jalon 3</t>
-  </si>
-  <si>
-    <t>Jalon 4</t>
-  </si>
-  <si>
-    <t>Jalon 5</t>
-  </si>
-  <si>
-    <t>Jalon 6</t>
   </si>
   <si>
     <t>Tâches</t>
@@ -967,13 +949,6 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
@@ -1030,6 +1005,13 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1367,19 +1349,16 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{5B127E9D-C7FD-46D2-844F-6DC63F82A0E5}" type="CELLRANGE">
+                    <a:fld id="{48BDE305-65EF-4D45-A995-A9F4507D6E79}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr>
-                        <a:defRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:defRPr lang="en-US" sz="1100">
                           <a:solidFill>
                             <a:srgbClr val="63A537">
                               <a:lumMod val="60000"/>
                               <a:lumOff val="40000"/>
                             </a:srgbClr>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[PLAGECELL]</a:t>
@@ -1442,7 +1421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F324475-5BF5-40F7-BFDA-783A26D2D251}" type="CELLRANGE">
+                    <a:fld id="{BC3BBB2B-7BB1-48F1-8FD8-4576B084BD91}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1476,7 +1455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CA79246-AF0D-4733-8FDB-729750EA9A63}" type="CELLRANGE">
+                    <a:fld id="{C6A96630-23E9-40FD-B0D9-5F53EAD8BDDA}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1510,7 +1489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCDF3E88-BFBF-4671-A863-2061472D468D}" type="CELLRANGE">
+                    <a:fld id="{4A7D5972-5DEE-4E0B-9EFB-D3FC7C316DD9}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1544,7 +1523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46EBD663-AE8F-418B-BC94-421A27CE1121}" type="CELLRANGE">
+                    <a:fld id="{7F38E341-C8EC-4766-ABCF-0C5E0E92E43D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1578,7 +1557,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3C071FA-A853-4620-B83C-FE05DAB4D23E}" type="CELLRANGE">
+                    <a:fld id="{2E1E4657-3889-4848-AC03-CB6392C021BD}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1661,16 +1640,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>10</c:v>
+                    <c:v>15</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9</c:v>
+                    <c:v>5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>2</c:v>
@@ -1717,13 +1696,13 @@
                   <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43959</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43960</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43964</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43969</c:v>
@@ -1857,7 +1836,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{E89DD7C8-5239-4D7B-9007-E169958B474A}" type="CELLRANGE">
+                    <a:fld id="{FA6A8106-FACB-4251-AB28-FCB9C9FCE456}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100">
@@ -2080,66 +2059,22 @@
               <c:idx val="0"/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent6"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
                     <a:fld id="{673B69E3-31CB-44A3-9617-D1C3F8308059}" type="CELLRANGE">
                       <a:rPr lang="en-US">
                         <a:solidFill>
                           <a:schemeClr val="accent6"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:pPr>
-                        <a:defRPr sz="1100">
-                          <a:solidFill>
-                            <a:schemeClr val="accent6"/>
-                          </a:solidFill>
-                        </a:defRPr>
-                      </a:pPr>
+                      <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="fr-FR"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -2164,7 +2099,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C28476F1-D03A-4D8B-91D0-582FF6AD42A8}" type="CELLRANGE">
+                    <a:fld id="{6C009C6E-4A54-4677-BE12-2D2613010CFD}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2198,7 +2133,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{265DD605-C490-4921-A891-27087DDBC379}" type="CELLRANGE">
+                    <a:fld id="{166DFADC-C21D-4C16-B1C6-E015C0053B0D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2232,7 +2167,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A219DA4-8236-4ACB-93ED-6DF1A822E234}" type="CELLRANGE">
+                    <a:fld id="{37416F7E-30D5-40B1-ACC8-51314E741A2B}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2266,7 +2201,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A03C1D48-D002-4656-94C4-0D26092F3E33}" type="CELLRANGE">
+                    <a:fld id="{C245A646-3587-40A4-9517-660978152D98}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2300,7 +2235,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B76B0D7F-37E6-402A-9543-160967223C57}" type="CELLRANGE">
+                    <a:fld id="{B1170D8C-DDF6-4D21-A101-135EDEA3BF08}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2334,7 +2269,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7F47CEB-3852-4979-918A-055569ADF594}" type="CELLRANGE">
+                    <a:fld id="{FDB79983-9057-45EF-AAB9-C545065CCFA5}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2368,7 +2303,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92859A37-A201-4A8A-89F3-E20A5AAAB8E3}" type="CELLRANGE">
+                    <a:fld id="{78D4796C-2B7F-412C-A1DA-96DC43050458}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2402,7 +2337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1427ABF-4CBF-4D95-B267-76D341E79639}" type="CELLRANGE">
+                    <a:fld id="{D6838DD7-EC4E-4EA8-A062-5BC31A3888E1}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2436,7 +2371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F33E71D-2826-4CB9-B7DF-80A24330776D}" type="CELLRANGE">
+                    <a:fld id="{85C6669A-E538-4A23-A4D2-0B9780D12315}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2470,7 +2405,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3006E104-C8EE-4575-A3D3-7F3133D897C1}" type="CELLRANGE">
+                    <a:fld id="{8472A004-59EE-448B-8A27-EE663CA2792B}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2504,7 +2439,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F55514C6-83DB-4C5A-B476-1F7C8EE809F8}" type="CELLRANGE">
+                    <a:fld id="{AA88BECC-E198-45BC-B53C-018C3AE67460}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2538,7 +2473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDAB50CC-745D-4E09-A017-B5DDA5D39F8B}" type="CELLRANGE">
+                    <a:fld id="{40948162-C114-4046-9553-999CDB210FA8}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2572,7 +2507,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3305399F-7564-4F1B-95CA-37B308A56CCE}" type="CELLRANGE">
+                    <a:fld id="{B7F7DDD5-CF0A-42D3-8293-D3E72A446C07}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2606,7 +2541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E4B2339-1CA5-4EC5-AF25-45A2C3109467}" type="CELLRANGE">
+                    <a:fld id="{7C0A1721-3AFB-40DB-A631-255ECA6CA278}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2708,16 +2643,16 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>43955</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43965</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43970</c:v>
@@ -2762,16 +2697,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2816,15 +2751,6 @@
                 <c15:f>'Données dynamiques masquées'!$G$18:$G$33</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="16"/>
-                  <c:pt idx="0">
-                    <c:v>Jalon 1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Jalon 2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Jalon 4</c:v>
-                  </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
@@ -3675,16 +3601,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{74A625E2-A69E-4395-831A-7686CCC538CA}" name="Tâches" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{74A625E2-A69E-4395-831A-7686CCC538CA}" name="Tâches" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(IF(LEN(OFFSET('Données du diagramme'!$H6,IncrémentDéfilement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET('Données du diagramme'!$I6,IncrémentDéfilement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET('Données du diagramme'!$H6,IncrémentDéfilement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET('Données du diagramme'!$G6,IncrémentDéfilement[incrément de défilement],0,1,1),4),"")),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{67A68433-98C6-4D8B-B13E-5A174B091BFD}" name="Date de début" dataDxfId="12" dataCellStyle="Date">
+    <tableColumn id="2" xr3:uid="{67A68433-98C6-4D8B-B13E-5A174B091BFD}" name="Date de début" dataDxfId="11" dataCellStyle="Date">
       <calculatedColumnFormula>IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET('Données du diagramme'!$G6,IncrémentDéfilement[incrément de défilement],0,1,1),2)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F8FBD7F0-C854-4F78-A244-B23F2FFF6E70}" name="Durée de la tâche en jours" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{F8FBD7F0-C854-4F78-A244-B23F2FFF6E70}" name="Durée de la tâche en jours" dataDxfId="10">
       <calculatedColumnFormula>IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,0,IF(AND('Données du diagramme'!$H6&lt;=$B$12,'Données du diagramme'!$I6&gt;=$B$12),ABS(OFFSET('Données du diagramme'!$H6,IncrémentDéfilement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET('Données du diagramme'!$K6,IncrémentDéfilement[incrément de défilement],0,1,1))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5A2DA5AB-D865-4B01-B889-2961800BAEFD}" name="position" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{5A2DA5AB-D865-4B01-B889-2961800BAEFD}" name="position" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,"",ROW($A1)),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3701,10 +3627,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{30441B7F-CD77-4D69-8E7E-DBBDDD14279F}" name="PointSaillantAujourdhui" displayName="PointSaillantAujourdhui" ref="B3:C5" totalsRowShown="0">
   <autoFilter ref="B3:C5" xr:uid="{C74C9E73-4A4C-4834-9227-5225090C02B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C38F7B9B-A971-4488-8015-29B0727A34E7}" name="coordonnée x de mise en surbrillance d’aujourd’hui" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{C38F7B9B-A971-4488-8015-29B0727A34E7}" name="coordonnée x de mise en surbrillance d’aujourd’hui" dataDxfId="8">
       <calculatedColumnFormula>IFERROR(IF(TODAY()&lt;MIN(DonnéesTâcheDynamiques[Date de début]),MIN($B$11,MIN(DonnéesTâcheDynamiques[Date de début])),TODAY()),TODAY())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0976B376-4D30-4099-AE10-A329AAD22F6E}" name="coordonnée y" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{0976B376-4D30-4099-AE10-A329AAD22F6E}" name="coordonnée y" dataDxfId="7">
       <calculatedColumnFormula>IFERROR(IF(Suivre_Ajourdhui="Oui",IF(TODAY()&lt;MIN(DonnéesTâcheDynamiques[Date de début]),0,9),0),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3725,13 +3651,13 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B32D10F3-8C97-4D87-8F09-C4C9DB7410B5}" name="Jalons" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{B32D10F3-8C97-4D87-8F09-C4C9DB7410B5}" name="Jalons" dataDxfId="6">
       <calculatedColumnFormula>IFERROR(IF(LEN('Données du diagramme'!D6)=0,"",IF(AND('Données du diagramme'!D6&lt;=$B$12,'Données du diagramme'!D6&gt;=$B$11-$D$11),'Données du diagramme'!E6,"")),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{08699A2C-FE9E-454E-85A5-61493B3B2502}" name="Date" dataDxfId="6" dataCellStyle="Date">
+    <tableColumn id="4" xr3:uid="{08699A2C-FE9E-454E-85A5-61493B3B2502}" name="Date" dataDxfId="5" dataCellStyle="Date">
       <calculatedColumnFormula>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,$B$12,'Données du diagramme'!$D6),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FF95A456-DC6C-4DEF-A422-1A60C8530445}" name="Ligne de base" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{FF95A456-DC6C-4DEF-A422-1A60C8530445}" name="Ligne de base" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C6),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3740,12 +3666,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6206301-033F-458C-8270-AB1B58CF736C}" name="IncrémentDéfilement" displayName="IncrémentDéfilement" ref="B7:B8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6206301-033F-458C-8270-AB1B58CF736C}" name="IncrémentDéfilement" displayName="IncrémentDéfilement" ref="B7:B8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="B7:B8" xr:uid="{EF98147B-BF9A-4D76-A56A-BD910CB7D4BE}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F9A5A7B8-7EE1-4D44-B78F-710AFC7920AA}" name="incrément de défilement" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F9A5A7B8-7EE1-4D44-B78F-710AFC7920AA}" name="incrément de défilement" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Date Tracking Gantt Chart" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3760,7 +3686,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4FA05E03-B076-4E71-A71C-74071F60185C}" name="PlageTracé" displayName="PlageTracé" ref="B10:B12" totalsRowShown="0">
   <autoFilter ref="B10:B12" xr:uid="{DDE82E12-4FE9-46D1-8EAA-6B89FFED0A50}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1D49A440-6CFE-4E17-92DB-D396A59981B6}" name="Plage pour le traçage du diagramme" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{1D49A440-6CFE-4E17-92DB-D396A59981B6}" name="Plage pour le traçage du diagramme" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(IF(LEN(#REF!)=0,End_Date+15,MIN(#REF!)+15),TODAY())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4081,7 +4007,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,7 +4053,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4150,21 +4076,21 @@
         <v>9</v>
       </c>
       <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>10</v>
@@ -4182,16 +4108,16 @@
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4202,12 +4128,8 @@
       <c r="C6" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="21">
-        <v>43955</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11">
         <v>1</v>
@@ -4216,14 +4138,14 @@
         <v>43955</v>
       </c>
       <c r="I6" s="21">
-        <v>43964</v>
+        <v>43969</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K6" s="24">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4233,23 +4155,19 @@
       <c r="C7" s="20">
         <v>1</v>
       </c>
-      <c r="D7" s="21">
-        <v>43965</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="6"/>
       <c r="G7" s="11">
         <v>2</v>
       </c>
       <c r="H7" s="21">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="I7" s="21">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K7" s="24">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
@@ -4263,27 +4181,23 @@
       <c r="C8" s="20">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
-        <v>43987</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="6"/>
       <c r="G8" s="11">
         <v>3</v>
       </c>
       <c r="H8" s="21">
-        <v>43960</v>
+        <v>43966</v>
       </c>
       <c r="I8" s="21">
-        <v>43968</v>
+        <v>43971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K8" s="24">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4293,28 +4207,23 @@
       <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
-        <v>43969</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="6"/>
       <c r="G9" s="11">
         <v>4</v>
       </c>
       <c r="H9" s="22">
-        <v>43964</v>
+        <v>43968</v>
       </c>
       <c r="I9" s="21">
-        <f>Tâches[[#This Row],[Date de début]]+7</f>
-        <v>43971</v>
+        <v>43980</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K9" s="24">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4324,12 +4233,8 @@
       <c r="C10" s="20">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
-        <v>43976</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="6"/>
       <c r="G10" s="11">
         <v>5</v>
       </c>
@@ -4340,7 +4245,7 @@
         <v>43984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K10" s="24">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
@@ -4354,12 +4259,8 @@
       <c r="C11" s="20">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
-        <v>43994</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="6"/>
       <c r="G11" s="11">
         <v>6</v>
       </c>
@@ -4370,7 +4271,7 @@
         <v>43973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K11" s="24">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
@@ -4392,7 +4293,7 @@
         <v>43985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K12" s="24">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
@@ -4414,7 +4315,7 @@
         <v>43994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K13" s="24">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
@@ -4427,7 +4328,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="6"/>
       <c r="G14" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -4528,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -4552,7 +4453,7 @@
     <row r="3" spans="1:18" ht="162.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="C2:O2">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>#REF!&lt;=TODAY()+7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4619,33 +4520,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="str">
         <f ca="1">IF(TODAY()&gt;=MIN(DonnéesTâcheDynamiques[Date de début]),"Aujourd’hui","")</f>
         <v>Aujourd’hui</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4673,10 +4574,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4689,13 +4590,13 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4715,22 +4616,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4744,7 +4645,7 @@
       </c>
       <c r="D15" s="3">
         <f ca="1">IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,0,IF(AND('Données du diagramme'!$H6&lt;=$B$12,'Données du diagramme'!$I6&gt;=$B$12),ABS(OFFSET('Données du diagramme'!$H6,IncrémentDéfilement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET('Données du diagramme'!$K6,IncrémentDéfilement[incrément de défilement],0,1,1))),"")</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <f ca="1">IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,"",8),"")</f>
@@ -4758,7 +4659,7 @@
       </c>
       <c r="C16" s="23">
         <f ca="1">IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET('Données du diagramme'!$G7,IncrémentDéfilement[incrément de défilement],0,1,1),2)),"")</f>
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="D16" s="3">
         <f ca="1">IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,0,IF(AND('Données du diagramme'!$H7&lt;=$B$12,'Données du diagramme'!$I7&gt;=$B$12),ABS(OFFSET('Données du diagramme'!$H7,IncrémentDéfilement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET('Données du diagramme'!$K7,IncrémentDéfilement[incrément de défilement],0,1,1))),"")</f>
@@ -4769,12 +4670,12 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="str">
         <f ca="1">IFERROR(IF(LEN(OFFSET('Données du diagramme'!$H8,IncrémentDéfilement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET('Données du diagramme'!$I8,IncrémentDéfilement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET('Données du diagramme'!$H8,IncrémentDéfilement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET('Données du diagramme'!$G8,IncrémentDéfilement[incrément de défilement],0,1,1),4),"")),"")</f>
@@ -4782,11 +4683,11 @@
       </c>
       <c r="C17" s="23">
         <f ca="1">IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET('Données du diagramme'!$G8,IncrémentDéfilement[incrément de défilement],0,1,1),2)),"")</f>
-        <v>43960</v>
+        <v>43966</v>
       </c>
       <c r="D17" s="3">
         <f ca="1">IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,0,IF(AND('Données du diagramme'!$H8&lt;=$B$12,'Données du diagramme'!$I8&gt;=$B$12),ABS(OFFSET('Données du diagramme'!$H8,IncrémentDéfilement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET('Données du diagramme'!$K8,IncrémentDéfilement[incrément de défilement],0,1,1))),"")</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
         <f ca="1">IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,"",6),"")</f>
@@ -4796,13 +4697,13 @@
         <v>8</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4812,27 +4713,27 @@
       </c>
       <c r="C18" s="23">
         <f ca="1">IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET('Données du diagramme'!$G9,IncrémentDéfilement[incrément de défilement],0,1,1),2)),"")</f>
-        <v>43964</v>
+        <v>43968</v>
       </c>
       <c r="D18" s="3">
         <f ca="1">IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,0,IF(AND('Données du diagramme'!$H9&lt;=$B$12,'Données du diagramme'!$I9&gt;=$B$12),ABS(OFFSET('Données du diagramme'!$H9,IncrémentDéfilement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET('Données du diagramme'!$K9,IncrémentDéfilement[incrément de défilement],0,1,1))),"")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
         <f ca="1">IFERROR(IF(LEN(DonnéesTâcheDynamiques[[#This Row],[Tâches]])=0,"",5),"")</f>
         <v>5</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f ca="1">IFERROR(IF(LEN('Données du diagramme'!D6)=0,"",IF(AND('Données du diagramme'!D6&lt;=$B$12,'Données du diagramme'!D6&gt;=$B$11-$D$11),'Données du diagramme'!E6,"")),"")</f>
-        <v>Jalon 1</v>
+        <f>IFERROR(IF(LEN('Données du diagramme'!D6)=0,"",IF(AND('Données du diagramme'!D6&lt;=$B$12,'Données du diagramme'!D6&gt;=$B$11-$D$11),'Données du diagramme'!E6,"")),"")</f>
+        <v/>
       </c>
       <c r="H18" s="21">
         <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,$B$12,'Données du diagramme'!$D6),2)</f>
-        <v>43955</v>
-      </c>
-      <c r="I18" s="8">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C6),"")</f>
-        <v>1</v>
+        <v>43970</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C6),"")</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4853,16 +4754,16 @@
         <v>4</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f ca="1">IFERROR(IF(LEN('Données du diagramme'!D7)=0,"",IF(AND('Données du diagramme'!D7&lt;=$B$12,'Données du diagramme'!D7&gt;=$B$11-$D$11),'Données du diagramme'!E7,"")),"")</f>
-        <v>Jalon 2</v>
+        <f>IFERROR(IF(LEN('Données du diagramme'!D7)=0,"",IF(AND('Données du diagramme'!D7&lt;=$B$12,'Données du diagramme'!D7&gt;=$B$11-$D$11),'Données du diagramme'!E7,"")),"")</f>
+        <v/>
       </c>
       <c r="H19" s="21">
         <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,$B$12,'Données du diagramme'!$D7),2)</f>
-        <v>43965</v>
-      </c>
-      <c r="I19" s="8">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C7),"")</f>
-        <v>1</v>
+        <v>43970</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C7),"")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4883,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="7" t="str">
-        <f ca="1">IFERROR(IF(LEN('Données du diagramme'!D8)=0,"",IF(AND('Données du diagramme'!D8&lt;=$B$12,'Données du diagramme'!D8&gt;=$B$11-$D$11),'Données du diagramme'!E8,"")),"")</f>
+        <f>IFERROR(IF(LEN('Données du diagramme'!D8)=0,"",IF(AND('Données du diagramme'!D8&lt;=$B$12,'Données du diagramme'!D8&gt;=$B$11-$D$11),'Données du diagramme'!E8,"")),"")</f>
         <v/>
       </c>
       <c r="H20" s="21">
@@ -4891,7 +4792,7 @@
         <v>43970</v>
       </c>
       <c r="I20" s="8" t="str">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C8),"")</f>
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C8),"")</f>
         <v/>
       </c>
     </row>
@@ -4913,21 +4814,21 @@
         <v>2</v>
       </c>
       <c r="G21" s="7" t="str">
-        <f ca="1">IFERROR(IF(LEN('Données du diagramme'!D9)=0,"",IF(AND('Données du diagramme'!D9&lt;=$B$12,'Données du diagramme'!D9&gt;=$B$11-$D$11),'Données du diagramme'!E9,"")),"")</f>
-        <v>Jalon 4</v>
+        <f>IFERROR(IF(LEN('Données du diagramme'!D9)=0,"",IF(AND('Données du diagramme'!D9&lt;=$B$12,'Données du diagramme'!D9&gt;=$B$11-$D$11),'Données du diagramme'!E9,"")),"")</f>
+        <v/>
       </c>
       <c r="H21" s="21">
         <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,$B$12,'Données du diagramme'!$D9),2)</f>
-        <v>43969</v>
-      </c>
-      <c r="I21" s="8">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C9),"")</f>
-        <v>1</v>
+        <v>43970</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C9),"")</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G22" s="7" t="str">
-        <f ca="1">IFERROR(IF(LEN('Données du diagramme'!D10)=0,"",IF(AND('Données du diagramme'!D10&lt;=$B$12,'Données du diagramme'!D10&gt;=$B$11-$D$11),'Données du diagramme'!E10,"")),"")</f>
+        <f>IFERROR(IF(LEN('Données du diagramme'!D10)=0,"",IF(AND('Données du diagramme'!D10&lt;=$B$12,'Données du diagramme'!D10&gt;=$B$11-$D$11),'Données du diagramme'!E10,"")),"")</f>
         <v/>
       </c>
       <c r="H22" s="21">
@@ -4935,13 +4836,13 @@
         <v>43970</v>
       </c>
       <c r="I22" s="8" t="str">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C10),"")</f>
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C10),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G23" s="7" t="str">
-        <f ca="1">IFERROR(IF(LEN('Données du diagramme'!D11)=0,"",IF(AND('Données du diagramme'!D11&lt;=$B$12,'Données du diagramme'!D11&gt;=$B$11-$D$11),'Données du diagramme'!E11,"")),"")</f>
+        <f>IFERROR(IF(LEN('Données du diagramme'!D11)=0,"",IF(AND('Données du diagramme'!D11&lt;=$B$12,'Données du diagramme'!D11&gt;=$B$11-$D$11),'Données du diagramme'!E11,"")),"")</f>
         <v/>
       </c>
       <c r="H23" s="21">
@@ -4949,7 +4850,7 @@
         <v>43970</v>
       </c>
       <c r="I23" s="8" t="str">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C11),"")</f>
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",'Données du diagramme'!$C11),"")</f>
         <v/>
       </c>
     </row>
@@ -5067,7 +4968,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G32" s="7" t="str">
         <f>IFERROR(IF(LEN('Données du diagramme'!D20)=0,"",IF(AND('Données du diagramme'!D20&lt;=$B$12,'Données du diagramme'!D20&gt;=$B$11-$D$11),'Données du diagramme'!E20,"")),"")</f>
@@ -5082,7 +4983,7 @@
         <v/>
       </c>
       <c r="J32" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5120,57 +5021,57 @@
   <sheetData>
     <row r="1" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
